--- a/xlsx/country_comparison/solidarity_support_weight_vote_mean.xlsx
+++ b/xlsx/country_comparison/solidarity_support_weight_vote_mean.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t xml:space="preserve">Japan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Russia</t>
   </si>
   <si>
     <t xml:space="preserve">Saudi Arabia</t>
@@ -65,27 +68,27 @@
 vulnerable countries cope with climate Loss and damage</t>
   </si>
   <si>
+    <t xml:space="preserve">At least 0.7% of developed countries' GDP in foreign aid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Debt relief for vulnerable countries, suspending
+payments until they are more able to repay</t>
+  </si>
+  <si>
     <t xml:space="preserve">Raise global minimum tax on profit from 15% to 35%,
 allocating revenues to countries based on sales</t>
   </si>
   <si>
+    <t xml:space="preserve">NCQG: Developing countries providing $300 bn a
+year in climate finance for developing countries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">International levy on shipping carbon emissions,
+returned to countries based on population</t>
+  </si>
+  <si>
     <t xml:space="preserve">Expand Security Council to new permanent members (e.g.
 India, Brazil, African Union), restrict veto use</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Debt relief for vulnerable countries, suspending
-payments until they are more able to repay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">International levy on shipping carbon emissions,
-returned to countries based on population</t>
-  </si>
-  <si>
-    <t xml:space="preserve">At least 0.7% of developed countries' GDP in foreign aid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NCQG: Developing countries providing $300 bn a
-year in climate finance for developing countries</t>
   </si>
   <si>
     <t xml:space="preserve">International levy on aviation carbon emissions, raising
@@ -461,22 +464,25 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.759312127043204</v>
+        <v>0.746758615571303</v>
       </c>
       <c r="C2" t="n">
         <v>0.899067107707109</v>
       </c>
       <c r="D2" t="n">
-        <v>0.880806406935604</v>
+        <v>0.88061965931131</v>
       </c>
       <c r="E2" t="n">
-        <v>0.859325173185444</v>
+        <v>0.859445533229057</v>
       </c>
       <c r="F2" t="n">
         <v>0.964717436709091</v>
@@ -491,33 +497,36 @@
         <v>0.937961080466205</v>
       </c>
       <c r="J2" t="n">
-        <v>0.775430460493536</v>
+        <v>0.775560245664184</v>
       </c>
       <c r="K2" t="n">
-        <v>0.528247295096882</v>
+        <v>0.52819369889068</v>
       </c>
       <c r="L2" t="n">
+        <v>0.661746313849443</v>
+      </c>
+      <c r="M2" t="n">
         <v>0.844702008923008</v>
       </c>
-      <c r="M2" t="n">
-        <v>0.620060751198147</v>
+      <c r="N2" t="n">
+        <v>0.619717771698186</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>0.526546928446986</v>
+        <v>0.53880897005617</v>
       </c>
       <c r="C3" t="n">
         <v>0.622717294167845</v>
       </c>
       <c r="D3" t="n">
-        <v>0.472524557867687</v>
+        <v>0.472415613571565</v>
       </c>
       <c r="E3" t="n">
-        <v>0.553543454556451</v>
+        <v>0.553620391101682</v>
       </c>
       <c r="F3" t="n">
         <v>0.834884450176832</v>
@@ -532,33 +541,36 @@
         <v>0.740378276151058</v>
       </c>
       <c r="J3" t="n">
-        <v>0.548476458088015</v>
+        <v>0.54869733551346</v>
       </c>
       <c r="K3" t="n">
-        <v>0.370015475561698</v>
+        <v>0.370291814891383</v>
       </c>
       <c r="L3" t="n">
+        <v>0.622904912769984</v>
+      </c>
+      <c r="M3" t="n">
         <v>0.834571283823028</v>
       </c>
-      <c r="M3" t="n">
-        <v>0.39505852383809</v>
+      <c r="N3" t="n">
+        <v>0.39502177849613</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>0.420680982327247</v>
+        <v>0.457646793262474</v>
       </c>
       <c r="C4" t="n">
         <v>0.487373574197681</v>
       </c>
       <c r="D4" t="n">
-        <v>0.339443937273975</v>
+        <v>0.339312817983837</v>
       </c>
       <c r="E4" t="n">
-        <v>0.399751163800926</v>
+        <v>0.399644861775946</v>
       </c>
       <c r="F4" t="n">
         <v>0.61845489966271</v>
@@ -573,279 +585,300 @@
         <v>0.470071392452268</v>
       </c>
       <c r="J4" t="n">
-        <v>0.336453255648268</v>
+        <v>0.336785160553625</v>
       </c>
       <c r="K4" t="n">
-        <v>0.260260844891734</v>
+        <v>0.260444114788849</v>
       </c>
       <c r="L4" t="n">
+        <v>0.695125891930721</v>
+      </c>
+      <c r="M4" t="n">
         <v>0.958227224438065</v>
       </c>
-      <c r="M4" t="n">
-        <v>0.311878996546887</v>
+      <c r="N4" t="n">
+        <v>0.312014305831053</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" t="n">
-        <v>0.392920169164717</v>
+        <v>0.339613614975512</v>
       </c>
       <c r="C5" t="n">
-        <v>0.523687810073323</v>
+        <v>0.340947849011829</v>
       </c>
       <c r="D5" t="n">
-        <v>0.420865405648404</v>
+        <v>0.23045269222624</v>
       </c>
       <c r="E5" t="n">
-        <v>0.446663789095317</v>
+        <v>0.244638275828069</v>
       </c>
       <c r="F5" t="n">
-        <v>0.844410613388007</v>
+        <v>0.466259178198866</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2309618225646</v>
+        <v>0.0995292164645176</v>
       </c>
       <c r="H5" t="n">
-        <v>0.428000591337885</v>
+        <v>0.557119912781717</v>
       </c>
       <c r="I5" t="n">
-        <v>0.491629330123401</v>
+        <v>0.365610055382771</v>
       </c>
       <c r="J5" t="n">
-        <v>0.26632859089933</v>
+        <v>0.290999563900097</v>
       </c>
       <c r="K5" t="n">
-        <v>0.328614692528761</v>
+        <v>0.0719327097269795</v>
       </c>
       <c r="L5" t="n">
-        <v>0.497163901847429</v>
+        <v>0.658406804039628</v>
       </c>
       <c r="M5" t="n">
-        <v>0.202584766331469</v>
+        <v>0.808599687276629</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.200736276966102</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>0.369534649040232</v>
+        <v>0.338691995923963</v>
       </c>
       <c r="C6" t="n">
-        <v>0.492563434872145</v>
+        <v>0.366925945043564</v>
       </c>
       <c r="D6" t="n">
-        <v>0.347680443266257</v>
+        <v>0.207521570407308</v>
       </c>
       <c r="E6" t="n">
-        <v>0.455448077381909</v>
+        <v>0.104264439406356</v>
       </c>
       <c r="F6" t="n">
-        <v>0.569963435571414</v>
+        <v>0.604095250398998</v>
       </c>
       <c r="G6" t="n">
-        <v>0.285573393035941</v>
+        <v>0.424311899764081</v>
       </c>
       <c r="H6" t="n">
-        <v>0.505538471803289</v>
+        <v>0.474036769409407</v>
       </c>
       <c r="I6" t="n">
-        <v>0.493970781786548</v>
+        <v>0.473707266132616</v>
       </c>
       <c r="J6" t="n">
-        <v>0.372363802041472</v>
+        <v>0.269478210110152</v>
       </c>
       <c r="K6" t="n">
-        <v>0.211268912840022</v>
+        <v>0.18547588627103</v>
       </c>
       <c r="L6" t="n">
-        <v>0.707615721886186</v>
+        <v>0.409824606520925</v>
       </c>
       <c r="M6" t="n">
-        <v>0.20936178055526</v>
+        <v>0.932399297563257</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.263563439563823</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7" t="n">
-        <v>0.328183141282541</v>
+        <v>0.329110709214005</v>
       </c>
       <c r="C7" t="n">
-        <v>0.366925945043565</v>
+        <v>0.523687810073322</v>
       </c>
       <c r="D7" t="n">
-        <v>0.207612597711307</v>
+        <v>0.42064295930788</v>
       </c>
       <c r="E7" t="n">
-        <v>0.104404043783456</v>
+        <v>0.446717126447487</v>
       </c>
       <c r="F7" t="n">
-        <v>0.604095250398998</v>
+        <v>0.844410613388007</v>
       </c>
       <c r="G7" t="n">
-        <v>0.424311899764081</v>
+        <v>0.2309618225646</v>
       </c>
       <c r="H7" t="n">
-        <v>0.474036769409407</v>
+        <v>0.428000591337885</v>
       </c>
       <c r="I7" t="n">
-        <v>0.473707266132616</v>
+        <v>0.491629330123401</v>
       </c>
       <c r="J7" t="n">
-        <v>0.269179866966282</v>
+        <v>0.266420209147519</v>
       </c>
       <c r="K7" t="n">
-        <v>0.185374196507093</v>
+        <v>0.328888261683248</v>
       </c>
       <c r="L7" t="n">
-        <v>0.932399297563257</v>
+        <v>-0.0778417618336274</v>
       </c>
       <c r="M7" t="n">
-        <v>0.263418865675065</v>
+        <v>0.497163901847429</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.201989188661513</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B8" t="n">
-        <v>0.310116970872903</v>
+        <v>0.320103458109216</v>
       </c>
       <c r="C8" t="n">
-        <v>0.420490345740477</v>
+        <v>0.385513480941771</v>
       </c>
       <c r="D8" t="n">
-        <v>0.493080322590259</v>
+        <v>0.263621500427078</v>
       </c>
       <c r="E8" t="n">
-        <v>0.30425827514431</v>
+        <v>0.362672359948726</v>
       </c>
       <c r="F8" t="n">
-        <v>0.499615146146505</v>
+        <v>0.466268824250188</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0892781446390868</v>
+        <v>0.187158200316393</v>
       </c>
       <c r="H8" t="n">
-        <v>0.456488900986814</v>
+        <v>0.528868523638982</v>
       </c>
       <c r="I8" t="n">
-        <v>0.40971182484094</v>
+        <v>0.382752450036814</v>
       </c>
       <c r="J8" t="n">
-        <v>0.389556438834567</v>
+        <v>0.28229502195541</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0340036100125962</v>
+        <v>0.044077194018155</v>
       </c>
       <c r="L8" t="n">
-        <v>0.660342805051329</v>
+        <v>0.697267347192898</v>
       </c>
       <c r="M8" t="n">
-        <v>0.203863534500386</v>
+        <v>0.776081506237869</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.109587709651655</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B9" t="n">
-        <v>0.289317902824654</v>
+        <v>0.31788661467437</v>
       </c>
       <c r="C9" t="n">
-        <v>0.340947849011829</v>
+        <v>0.420490345740477</v>
       </c>
       <c r="D9" t="n">
-        <v>0.230575582328849</v>
+        <v>0.49292005022254</v>
       </c>
       <c r="E9" t="n">
-        <v>0.244593938523492</v>
+        <v>0.304386935822869</v>
       </c>
       <c r="F9" t="n">
-        <v>0.466259178198866</v>
+        <v>0.499615146146505</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0995292164645176</v>
+        <v>0.0892781446390868</v>
       </c>
       <c r="H9" t="n">
-        <v>0.557119912781717</v>
+        <v>0.456488900986814</v>
       </c>
       <c r="I9" t="n">
-        <v>0.365610055382771</v>
+        <v>0.40971182484094</v>
       </c>
       <c r="J9" t="n">
-        <v>0.290768090569677</v>
+        <v>0.38981506699751</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0717590530042847</v>
+        <v>0.0340824452221103</v>
       </c>
       <c r="L9" t="n">
-        <v>0.808599687276629</v>
+        <v>0.36590464407975</v>
       </c>
       <c r="M9" t="n">
-        <v>0.200954024068426</v>
+        <v>0.660342805051329</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.20372593232651</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="n">
-        <v>0.261613822212586</v>
+        <v>0.315567059102638</v>
       </c>
       <c r="C10" t="n">
-        <v>0.385513480941771</v>
+        <v>0.492563434872145</v>
       </c>
       <c r="D10" t="n">
-        <v>0.263714932996775</v>
+        <v>0.347566986960034</v>
       </c>
       <c r="E10" t="n">
-        <v>0.362631523617536</v>
+        <v>0.455512915855029</v>
       </c>
       <c r="F10" t="n">
-        <v>0.466268824250188</v>
+        <v>0.569963435571414</v>
       </c>
       <c r="G10" t="n">
-        <v>0.187158200316393</v>
+        <v>0.285573393035941</v>
       </c>
       <c r="H10" t="n">
-        <v>0.528868523638982</v>
+        <v>0.505538471803289</v>
       </c>
       <c r="I10" t="n">
-        <v>0.382752450036814</v>
+        <v>0.493970781786548</v>
       </c>
       <c r="J10" t="n">
-        <v>0.282007083596189</v>
+        <v>0.372640046923682</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0439313060807981</v>
+        <v>0.21134660742927</v>
       </c>
       <c r="L10" t="n">
-        <v>0.776081506237869</v>
+        <v>-0.0291282837527572</v>
       </c>
       <c r="M10" t="n">
-        <v>0.109729520819908</v>
+        <v>0.707615721886186</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.209230862824192</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0137666768835721</v>
+        <v>0.00973878914166017</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0839217421719148</v>
+        <v>0.0839217421719147</v>
       </c>
       <c r="D11" t="n">
-        <v>0.166278231839066</v>
+        <v>0.166213268172324</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0834138391975991</v>
+        <v>0.0835668003633305</v>
       </c>
       <c r="F11" t="n">
         <v>-0.00838446613759675</v>
@@ -860,16 +893,19 @@
         <v>0.0370952506022134</v>
       </c>
       <c r="J11" t="n">
-        <v>0.00363529830059012</v>
+        <v>0.00387057722535984</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.105657228702345</v>
+        <v>-0.105598258636374</v>
       </c>
       <c r="L11" t="n">
+        <v>-0.0180680286245144</v>
+      </c>
+      <c r="M11" t="n">
         <v>0.414946008655522</v>
       </c>
-      <c r="M11" t="n">
-        <v>-0.100569226792585</v>
+      <c r="N11" t="n">
+        <v>-0.100891956929632</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/solidarity_support_weight_vote_mean.xlsx
+++ b/xlsx/country_comparison/solidarity_support_weight_vote_mean.xlsx
@@ -473,7 +473,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.746758615571303</v>
+        <v>0.748108439408092</v>
       </c>
       <c r="C2" t="n">
         <v>0.899067107707109</v>
@@ -503,7 +503,7 @@
         <v>0.52819369889068</v>
       </c>
       <c r="L2" t="n">
-        <v>0.661746313849443</v>
+        <v>0.670403870413533</v>
       </c>
       <c r="M2" t="n">
         <v>0.844702008923008</v>
@@ -517,7 +517,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>0.53880897005617</v>
+        <v>0.538331317889367</v>
       </c>
       <c r="C3" t="n">
         <v>0.622717294167845</v>
@@ -547,7 +547,7 @@
         <v>0.370291814891383</v>
       </c>
       <c r="L3" t="n">
-        <v>0.622904912769984</v>
+        <v>0.62055734756295</v>
       </c>
       <c r="M3" t="n">
         <v>0.834571283823028</v>
@@ -561,7 +561,7 @@
         <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>0.457646793262474</v>
+        <v>0.458387576622686</v>
       </c>
       <c r="C4" t="n">
         <v>0.487373574197681</v>
@@ -591,7 +591,7 @@
         <v>0.260444114788849</v>
       </c>
       <c r="L4" t="n">
-        <v>0.695125891930721</v>
+        <v>0.703121504911223</v>
       </c>
       <c r="M4" t="n">
         <v>0.958227224438065</v>
@@ -605,7 +605,7 @@
         <v>17</v>
       </c>
       <c r="B5" t="n">
-        <v>0.339613614975512</v>
+        <v>0.340202418477655</v>
       </c>
       <c r="C5" t="n">
         <v>0.340947849011829</v>
@@ -635,7 +635,7 @@
         <v>0.0719327097269795</v>
       </c>
       <c r="L5" t="n">
-        <v>0.658406804039628</v>
+        <v>0.66320354832362</v>
       </c>
       <c r="M5" t="n">
         <v>0.808599687276629</v>
@@ -649,10 +649,10 @@
         <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>0.338691995923963</v>
+        <v>0.33829822989737</v>
       </c>
       <c r="C6" t="n">
-        <v>0.366925945043564</v>
+        <v>0.366925945043565</v>
       </c>
       <c r="D6" t="n">
         <v>0.207521570407308</v>
@@ -679,7 +679,7 @@
         <v>0.18547588627103</v>
       </c>
       <c r="L6" t="n">
-        <v>0.409824606520925</v>
+        <v>0.407151516775038</v>
       </c>
       <c r="M6" t="n">
         <v>0.932399297563257</v>
@@ -693,10 +693,10 @@
         <v>19</v>
       </c>
       <c r="B7" t="n">
-        <v>0.329110709214005</v>
+        <v>0.329346428115222</v>
       </c>
       <c r="C7" t="n">
-        <v>0.523687810073322</v>
+        <v>0.523687810073323</v>
       </c>
       <c r="D7" t="n">
         <v>0.42064295930788</v>
@@ -723,7 +723,7 @@
         <v>0.328888261683248</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.0778417618336274</v>
+        <v>-0.0763319799713056</v>
       </c>
       <c r="M7" t="n">
         <v>0.497163901847429</v>
@@ -737,7 +737,7 @@
         <v>20</v>
       </c>
       <c r="B8" t="n">
-        <v>0.320103458109216</v>
+        <v>0.320249242216214</v>
       </c>
       <c r="C8" t="n">
         <v>0.385513480941771</v>
@@ -767,7 +767,7 @@
         <v>0.044077194018155</v>
       </c>
       <c r="L8" t="n">
-        <v>0.697267347192898</v>
+        <v>0.699570192636595</v>
       </c>
       <c r="M8" t="n">
         <v>0.776081506237869</v>
@@ -781,7 +781,7 @@
         <v>21</v>
       </c>
       <c r="B9" t="n">
-        <v>0.31788661467437</v>
+        <v>0.319190975705175</v>
       </c>
       <c r="C9" t="n">
         <v>0.420490345740477</v>
@@ -811,7 +811,7 @@
         <v>0.0340824452221103</v>
       </c>
       <c r="L9" t="n">
-        <v>0.36590464407975</v>
+        <v>0.377306157800078</v>
       </c>
       <c r="M9" t="n">
         <v>0.660342805051329</v>
@@ -825,7 +825,7 @@
         <v>22</v>
       </c>
       <c r="B10" t="n">
-        <v>0.315567059102638</v>
+        <v>0.31547866481026</v>
       </c>
       <c r="C10" t="n">
         <v>0.492563434872145</v>
@@ -855,7 +855,7 @@
         <v>0.21134660742927</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.0291282837527572</v>
+        <v>-0.0300563026874272</v>
       </c>
       <c r="M10" t="n">
         <v>0.707615721886186</v>
@@ -869,10 +869,10 @@
         <v>23</v>
       </c>
       <c r="B11" t="n">
-        <v>0.00973878914166017</v>
+        <v>0.010244201702362</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0839217421719147</v>
+        <v>0.0839217421719148</v>
       </c>
       <c r="D11" t="n">
         <v>0.166213268172324</v>
@@ -899,7 +899,7 @@
         <v>-0.105598258636374</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.0180680286245144</v>
+        <v>-0.0145192493656787</v>
       </c>
       <c r="M11" t="n">
         <v>0.414946008655522</v>
